--- a/data/trans_orig/P14B07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B07-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1283D13F-53B5-4979-8223-B27FA15C17A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EC93F09-F76D-4533-B2DF-DB26EAD60194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9D1F0AE0-19ED-4468-A20A-FE03E885B7B3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF863DBF-E846-4AB2-8490-159807EA996F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -102,13 +102,13 @@
     <t>12,87%</t>
   </si>
   <si>
-    <t>56,79%</t>
+    <t>57,52%</t>
   </si>
   <si>
     <t>87,13%</t>
   </si>
   <si>
-    <t>43,21%</t>
+    <t>42,48%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -117,13 +117,13 @@
     <t>17,03%</t>
   </si>
   <si>
-    <t>62,86%</t>
+    <t>59,13%</t>
   </si>
   <si>
     <t>82,97%</t>
   </si>
   <si>
-    <t>37,14%</t>
+    <t>40,87%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -132,19 +132,19 @@
     <t>31,22%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
   </si>
   <si>
     <t>68,78%</t>
   </si>
   <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -153,7 +153,7 @@
     <t>22,73%</t>
   </si>
   <si>
-    <t>56,94%</t>
+    <t>57,13%</t>
   </si>
   <si>
     <t>33,3%</t>
@@ -168,16 +168,16 @@
     <t>30,7%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>43,06%</t>
+    <t>42,87%</t>
   </si>
   <si>
     <t>66,7%</t>
@@ -192,46 +192,46 @@
     <t>69,3%</t>
   </si>
   <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
   </si>
   <si>
     <t>71,27%</t>
   </si>
   <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -264,157 +264,157 @@
     <t>19,61%</t>
   </si>
   <si>
-    <t>79,7%</t>
+    <t>81,9%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>66,85%</t>
+    <t>67,78%</t>
   </si>
   <si>
     <t>80,39%</t>
   </si>
   <si>
-    <t>20,3%</t>
+    <t>18,1%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>33,15%</t>
+    <t>32,22%</t>
   </si>
   <si>
     <t>17,22%</t>
   </si>
   <si>
-    <t>49,38%</t>
+    <t>47,82%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>47,35%</t>
+    <t>44,75%</t>
   </si>
   <si>
     <t>82,78%</t>
   </si>
   <si>
-    <t>50,62%</t>
+    <t>52,18%</t>
   </si>
   <si>
     <t>84,09%</t>
   </si>
   <si>
-    <t>52,65%</t>
+    <t>55,25%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>69,84%</t>
   </si>
   <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
   </si>
   <si>
     <t>73,5%</t>
   </si>
   <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>73,93%</t>
   </si>
   <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4C953B-DBF6-47D1-9E90-17E2C4DA8D4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF518E0-05F5-40F3-8B3B-7BE37496CDD6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2003,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F5E77B-8374-4B4E-A97E-94DE83A7A4E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1079CFA4-37CC-40D6-A46D-010D4A483EE3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B07-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EC93F09-F76D-4533-B2DF-DB26EAD60194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17D3A07A-24C3-42C8-9126-A1FE1625B3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DF863DBF-E846-4AB2-8490-159807EA996F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C319DB5E-91A0-4472-8C59-3099F5F089F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,13 +102,13 @@
     <t>12,87%</t>
   </si>
   <si>
-    <t>57,52%</t>
+    <t>58,76%</t>
   </si>
   <si>
     <t>87,13%</t>
   </si>
   <si>
-    <t>42,48%</t>
+    <t>41,24%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -117,13 +117,13 @@
     <t>17,03%</t>
   </si>
   <si>
-    <t>59,13%</t>
+    <t>59,17%</t>
   </si>
   <si>
     <t>82,97%</t>
   </si>
   <si>
-    <t>40,87%</t>
+    <t>40,83%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -132,19 +132,19 @@
     <t>31,22%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
   </si>
   <si>
     <t>68,78%</t>
   </si>
   <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -153,91 +153,91 @@
     <t>22,73%</t>
   </si>
   <si>
-    <t>57,13%</t>
+    <t>57,05%</t>
   </si>
   <si>
     <t>33,3%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
   </si>
   <si>
     <t>30,7%</t>
   </si>
   <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>42,87%</t>
+    <t>42,95%</t>
   </si>
   <si>
     <t>66,7%</t>
   </si>
   <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
   </si>
   <si>
     <t>69,3%</t>
   </si>
   <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>71,27%</t>
   </si>
   <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo estreñimiento crónico le limita en 2015 (Tasa respuesta: 1,04%)</t>
+    <t>Población cuyo estreñimiento crónico le limita en 2016 (Tasa respuesta: 1,04%)</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -264,157 +264,157 @@
     <t>19,61%</t>
   </si>
   <si>
-    <t>81,9%</t>
+    <t>79,7%</t>
   </si>
   <si>
     <t>16,5%</t>
   </si>
   <si>
-    <t>67,78%</t>
+    <t>67,46%</t>
   </si>
   <si>
     <t>80,39%</t>
   </si>
   <si>
-    <t>18,1%</t>
+    <t>20,3%</t>
   </si>
   <si>
     <t>83,5%</t>
   </si>
   <si>
-    <t>32,22%</t>
+    <t>32,54%</t>
   </si>
   <si>
     <t>17,22%</t>
   </si>
   <si>
-    <t>47,82%</t>
+    <t>47,94%</t>
   </si>
   <si>
     <t>15,91%</t>
   </si>
   <si>
-    <t>44,75%</t>
+    <t>50,85%</t>
   </si>
   <si>
     <t>82,78%</t>
   </si>
   <si>
-    <t>52,18%</t>
+    <t>52,06%</t>
   </si>
   <si>
     <t>84,09%</t>
   </si>
   <si>
-    <t>55,25%</t>
+    <t>49,15%</t>
   </si>
   <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
   </si>
   <si>
     <t>82,14%</t>
   </si>
   <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
   </si>
   <si>
     <t>69,84%</t>
   </si>
   <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>73,5%</t>
   </si>
   <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>73,93%</t>
   </si>
   <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DF518E0-05F5-40F3-8B3B-7BE37496CDD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F493A4C1-DA1D-49BF-9766-0992F8C3B0BF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2003,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1079CFA4-37CC-40D6-A46D-010D4A483EE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9EBE16-68E1-43F7-AB17-C999C36BA0B9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
